--- a/List of stimuli.xlsx
+++ b/List of stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omistaja\Desktop\Adjectival-metonymy-in-mental-lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A3DB23-6000-4847-8C28-87EF8E6F4408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36436702-E3F5-479D-AC83-651ADB89DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2739,7 +2739,7 @@
   <dimension ref="A1:AB974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4409,7 +4409,7 @@
       <c r="D58" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>714</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -6281,7 +6281,7 @@
       <c r="D130" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="12" t="s">
         <v>657</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -6359,7 +6359,7 @@
       <c r="D133" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="12" t="s">
         <v>664</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -7607,7 +7607,7 @@
       <c r="D181" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="E181" s="10" t="s">
         <v>584</v>
       </c>
       <c r="F181" s="4" t="s">
@@ -10259,7 +10259,7 @@
       <c r="D283" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="E283" s="17" t="s">
+      <c r="E283" s="18" t="s">
         <v>488</v>
       </c>
       <c r="F283" s="16" t="s">
@@ -10285,7 +10285,7 @@
       <c r="D284" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E284" s="17" t="s">
+      <c r="E284" s="18" t="s">
         <v>489</v>
       </c>
       <c r="F284" s="16" t="s">
@@ -10311,7 +10311,7 @@
       <c r="D285" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="E285" s="17" t="s">
+      <c r="E285" s="18" t="s">
         <v>490</v>
       </c>
       <c r="F285" s="16" t="s">
@@ -10337,7 +10337,7 @@
       <c r="D286" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="E286" s="17" t="s">
+      <c r="E286" s="18" t="s">
         <v>491</v>
       </c>
       <c r="F286" s="15" t="s">
@@ -10363,7 +10363,7 @@
       <c r="D287" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="E287" s="17" t="s">
+      <c r="E287" s="18" t="s">
         <v>492</v>
       </c>
       <c r="F287" s="16" t="s">
@@ -10389,7 +10389,7 @@
       <c r="D288" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="E288" s="17" t="s">
+      <c r="E288" s="18" t="s">
         <v>493</v>
       </c>
       <c r="F288" s="16" t="s">
@@ -10415,7 +10415,7 @@
       <c r="D289" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="E289" s="17" t="s">
+      <c r="E289" s="18" t="s">
         <v>494</v>
       </c>
       <c r="F289" s="15" t="s">
@@ -10441,7 +10441,7 @@
       <c r="D290" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E290" s="17" t="s">
+      <c r="E290" s="18" t="s">
         <v>495</v>
       </c>
       <c r="F290" s="15" t="s">
@@ -10467,7 +10467,7 @@
       <c r="D291" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="E291" s="17" t="s">
+      <c r="E291" s="18" t="s">
         <v>496</v>
       </c>
       <c r="F291" s="15" t="s">
@@ -10493,7 +10493,7 @@
       <c r="D292" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="E292" s="17" t="s">
+      <c r="E292" s="18" t="s">
         <v>497</v>
       </c>
       <c r="F292" s="15" t="s">
@@ -10519,7 +10519,7 @@
       <c r="D293" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="E293" s="17" t="s">
+      <c r="E293" s="18" t="s">
         <v>498</v>
       </c>
       <c r="F293" s="15" t="s">
@@ -10545,7 +10545,7 @@
       <c r="D294" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="E294" s="17" t="s">
+      <c r="E294" s="18" t="s">
         <v>500</v>
       </c>
       <c r="F294" s="15" t="s">
@@ -10571,7 +10571,7 @@
       <c r="D295" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="E295" s="17" t="s">
+      <c r="E295" s="18" t="s">
         <v>499</v>
       </c>
       <c r="F295" s="15" t="s">
@@ -10597,7 +10597,7 @@
       <c r="D296" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="E296" s="17" t="s">
+      <c r="E296" s="18" t="s">
         <v>499</v>
       </c>
       <c r="F296" s="15" t="s">
@@ -10623,7 +10623,7 @@
       <c r="D297" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="E297" s="17" t="s">
+      <c r="E297" s="18" t="s">
         <v>501</v>
       </c>
       <c r="F297" s="15" t="s">
@@ -10649,7 +10649,7 @@
       <c r="D298" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="E298" s="17" t="s">
+      <c r="E298" s="18" t="s">
         <v>502</v>
       </c>
       <c r="F298" s="15" t="s">
@@ -10675,7 +10675,7 @@
       <c r="D299" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="E299" s="17" t="s">
+      <c r="E299" s="18" t="s">
         <v>503</v>
       </c>
       <c r="F299" s="15" t="s">
@@ -10701,7 +10701,7 @@
       <c r="D300" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="E300" s="17" t="s">
+      <c r="E300" s="18" t="s">
         <v>504</v>
       </c>
       <c r="F300" s="15" t="s">
@@ -10727,7 +10727,7 @@
       <c r="D301" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E301" s="17" t="s">
+      <c r="E301" s="18" t="s">
         <v>505</v>
       </c>
       <c r="F301" s="15" t="s">
